--- a/data/BFC.xlsx
+++ b/data/BFC.xlsx
@@ -73,7 +73,7 @@
     <t>Ngày xuất</t>
   </si>
   <si>
-    <t>26/11/2025</t>
+    <t>17/12/2025</t>
   </si>
   <si>
     <t>BFC</t>

--- a/data/BFC.xlsx
+++ b/data/BFC.xlsx
@@ -73,7 +73,7 @@
     <t>Ngày xuất</t>
   </si>
   <si>
-    <t>17/12/2025</t>
+    <t>21/12/2025</t>
   </si>
   <si>
     <t>BFC</t>

--- a/data/BFC.xlsx
+++ b/data/BFC.xlsx
@@ -73,7 +73,7 @@
     <t>Ngày xuất</t>
   </si>
   <si>
-    <t>21/12/2025</t>
+    <t>23/12/2025</t>
   </si>
   <si>
     <t>BFC</t>

--- a/data/BFC.xlsx
+++ b/data/BFC.xlsx
@@ -73,7 +73,7 @@
     <t>Ngày xuất</t>
   </si>
   <si>
-    <t>23/12/2025</t>
+    <t>25/12/2025</t>
   </si>
   <si>
     <t>BFC</t>
